--- a/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,5</t>
+          <t>-13,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-38,08%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>-16,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -0,92</t>
+          <t>-23,63; -1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 6,61</t>
+          <t>-4,96; 9,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 13,08</t>
+          <t>-11,43; 2,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 1,48</t>
+          <t>-12,84; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,09; -2,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 37,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 72,88</t>
+          <t>-27,06; -1,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 1,44</t>
+          <t>-5,85; 12,97</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,6; 3,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,87; 7,04</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 7,89</t>
+          <t>-4,22; 11,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,16</t>
+          <t>-0,67; 11,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,26</t>
+          <t>-2,33; 8,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 3,9</t>
+          <t>-0,49; 13,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 64,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 17,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 37,55</t>
+          <t>-5,25; 15,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 5,25</t>
+          <t>-0,82; 14,73</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 10,94</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 19,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>-0,1%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 3,18</t>
+          <t>4,27; 19,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,71</t>
+          <t>-5,47; 5,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 6,19</t>
+          <t>-1,1; 9,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 15,9</t>
+          <t>-7,44; 6,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 34,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 41,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 62,0</t>
+          <t>5,76; 31,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 25,23</t>
+          <t>-6,4; 7,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 12,74</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 9,38</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,99</t>
+          <t>-5,78; 5,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,09</t>
+          <t>-3,84; 10,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,17</t>
+          <t>-4,26; 10,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 21,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 14,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 36,37</t>
+          <t>-7,05; 7,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 4,18</t>
+          <t>-4,56; 15,29</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 13,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 5,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 6,2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 5,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 6,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 8,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 7,98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 7,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 7,79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-13,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,14</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-16,08%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-5,17%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-4,08%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-13.69606576542256</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.903763254345858</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-4.318289522185603</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.976614580096016</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.1641000360649929</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.02327066090157263</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.05412339181977076</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.04466729484355079</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,63; -1,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 9,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,43; 2,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,84; 5,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-27,06; -1,52</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 12,97</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-13,6; 3,71</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-13,87; 7,04</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.70651839553332</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.123347364971332</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.69143960491621</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.58778925188128</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.2713415914985203</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.05963516812629581</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1400044019731045</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1491500503586195</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1.742661116348776</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.710415938518453</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.120152560943192</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.365615124005906</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>-0.02422068829454479</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1250364491727987</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.04145630542767859</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.06478029533350878</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,63%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,22; 11,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 11,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 8,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 13,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 15,7</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 14,73</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 10,94</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 19,15</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>2.322413192707995</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.30913765988349</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.174940094760825</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.627623481649847</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.02978515428211303</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.08001111400765312</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.04044525684328606</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.08558894402806266</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,92</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-0,7%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.552753342751106</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.5688734615198628</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.03128433408935</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6688448439343889</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.05656653537334629</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.007358481264189685</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.02491967395627685</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.008084183209757246</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 19,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 5,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 9,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 6,97</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 31,02</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 7,31</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 12,74</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 9,38</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.07758470265188</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.50821396735507</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.318908398761234</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.92945401470043</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.1519418576830301</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1663091198146813</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1107649754115455</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1950790156287481</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,77%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>12.08196460697668</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1286625392003193</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.94610514023469</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.9104470138599052</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1718198058996512</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.001554591390304123</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.05131140999666155</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.01144670484084792</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 5,69</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 10,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 10,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 7,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 15,29</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 13,07</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.490759733106438</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.36984807861947</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.224545294864779</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.874786721059082</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.06200672409908908</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.06224740473989304</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.01579951660967601</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.09378881618787271</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.91419683649777</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.105986662653229</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.051227003287297</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.399845931586292</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.3306337250544536</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.07734187467812721</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1224018450168132</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.0848836033741419</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,94%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,31%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 5,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 6,2</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 5,38</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 6,07</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 8,12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 7,98</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 7,07</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 7,79</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.166636281082658</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.373319298985933</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.661294846900829</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.03910681929651</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.04171269331842679</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04179562174609733</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.02123247445420903</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.02538372721591425</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.760782918074687</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2570926543982153</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.620063015129801</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.654561713135971</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.02246835487094777</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.003065692758213639</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.01987945454125221</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03179664921001488</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.055297902617511</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.020410007555751</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.218368397574667</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.320538551513913</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.1267342467765971</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.08967672543175825</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.06857177749814763</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.08170685176817377</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
